--- a/FowlerModule05-1.xlsx
+++ b/FowlerModule05-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer Transportation Survey" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
   <si>
     <t xml:space="preserve">Consumer Transportation Survey</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t xml:space="preserve">P Value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Note: I did this in Github too </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/drpafowler/Module-5/blob/main/FowlerModule05-1.ipynb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">H0: µ = 450</t>
@@ -171,12 +201,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,6 +238,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -254,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,12 +323,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2226,17 +2258,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="27.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="32.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2272,7 +2304,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="7" t="n">
@@ -2281,7 +2313,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -2293,7 +2325,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="7" t="n">
@@ -2302,7 +2334,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="7" t="n">
@@ -2311,12 +2343,20 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="7" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Reject H0</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://github.com/drpafowler/Module-5/blob/main/FowlerModule05-1.ipynb"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2340,16 +2380,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="43.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2357,67 +2397,67 @@
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="7" t="n">
         <f aca="false">AVERAGE('Consumer Transportation Survey'!G4:G53)</f>
         <v>502.1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="7" t="n">
         <f aca="false">_xlfn.STDEV.S('Consumer Transportation Survey'!G4:G53)</f>
         <v>292.164843741282</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="7" t="n">
         <f aca="false">COUNT('Consumer Transportation Survey'!G4:G53)</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="7" t="n">
         <f aca="false">B4-1</f>
         <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">(B2-450)/(B3/SQRT(B4))</f>
         <v>1.260941009468</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="7" t="n">
         <f aca="false">TDIST(ABS(B6),B5,2)</f>
         <v>0.213300977357428</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="7" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Fail to reject H0</v>
       </c>
@@ -2446,15 +2486,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="42.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2462,67 +2502,67 @@
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="7" t="n">
         <f aca="false">AVERAGE('Consumer Transportation Survey'!E8:E22)</f>
         <v>39.3333333333333</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="7" t="n">
         <f aca="false">_xlfn.STDEV.S('Consumer Transportation Survey'!E8:E22)</f>
         <v>7.55613909978093</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="7" t="n">
         <f aca="false">COUNT('Consumer Transportation Survey'!E8:E22)</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="7" t="n">
         <f aca="false">B4-1</f>
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">(B2-35)/(B3/SQRT(B4))</f>
         <v>2.22109831647383</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="7" t="n">
         <f aca="false">TDIST(B6,B5,1)</f>
         <v>0.0216746597152201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="7" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Reject H0</v>
       </c>
@@ -2545,89 +2585,89 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="20.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="7" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <f aca="false">COUNTIF('Consumer Transportation Survey'!C4:C53, "Yes")</f>
         <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <f aca="false">B2/50</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <f aca="false">SQRT((0.75*(1-0.75))/B3)</f>
         <v>0.0612372435695795</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <f aca="false">(B4-0.75)/B5</f>
         <v>-0.816496580927727</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <f aca="false">_xlfn.NORM.S.DIST(B6, TRUE())</f>
         <v>0.207108089121262</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="7" t="str">
         <f aca="false">IF(B7&lt;B1, "Reject H0", "Fail to reject H0")</f>
         <v>Fail to reject H0</v>
       </c>

--- a/FowlerModule05-1.xlsx
+++ b/FowlerModule05-1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer Transportation Survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Question 1" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Question 2" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Question 3" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Question 4" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Q1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Q2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Q3" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Q4" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Consumer Transportation Survey'!$A$3:$J$53</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="48">
   <si>
     <t xml:space="preserve">Consumer Transportation Survey</t>
   </si>
@@ -95,6 +95,9 @@
     <t xml:space="preserve">Alpha</t>
   </si>
   <si>
+    <t xml:space="preserve">Hypotheses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean</t>
   </si>
   <si>
@@ -104,12 +107,15 @@
     <t xml:space="preserve">Std Deviation</t>
   </si>
   <si>
-    <t xml:space="preserve">µ &lt; 10 (left-tailed test)</t>
+    <t xml:space="preserve">H1: µ &lt; 10 (left-tailed test)</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
+    <t xml:space="preserve">Conclusion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Degrees Freedom</t>
   </si>
   <si>
@@ -122,36 +128,6 @@
     <t xml:space="preserve">P Value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Note: I did this in Github too </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/drpafowler/Module-5/blob/main/FowlerModule05-1.ipynb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">H0: µ = 450</t>
   </si>
   <si>
@@ -188,7 +164,7 @@
     <t xml:space="preserve">Standard Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Fail to reject H0: At least 75% of individuals are satisfied with their vehicles.</t>
+    <t xml:space="preserve">Fail to reject H0: At least 75% of individuals are satisfied with their vehicles</t>
   </si>
   <si>
     <t xml:space="preserve">Z-statistic</t>
@@ -205,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,11 +217,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,8 +305,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -538,20 +528,20 @@
       <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="25.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="11" style="1" width="9.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="52" style="3" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="11" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="52" style="3" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,105 +2248,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="32.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="7" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="n">
         <f aca="false">AVERAGE('Consumer Transportation Survey'!F4:F53)</f>
         <v>8.16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="n">
         <f aca="false">_xlfn.STDEV.S('Consumer Transportation Survey'!F4:F53)</f>
         <v>5.1640831811698</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="n">
         <f aca="false">COUNT('Consumer Transportation Survey'!F4:F53)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="n">
         <f aca="false">B4-1</f>
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
+      <c r="D5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="n">
         <f aca="false">(B2-10)/(B3/SQRT(B4))</f>
         <v>-2.51947234724542</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="n">
         <f aca="false">TDIST(ABS(B6),B5,1)</f>
         <v>0.00753192079822151</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="str">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://github.com/drpafowler/Module-5/blob/main/FowlerModule05-1.ipynb"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2375,89 +2363,95 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="43.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="0" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">AVERAGE('Consumer Transportation Survey'!G4:G53)</f>
         <v>502.1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">_xlfn.STDEV.S('Consumer Transportation Survey'!G4:G53)</f>
-        <v>292.164843741282</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7" t="n">
+        <v>292.164843741281</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">COUNT('Consumer Transportation Survey'!G4:G53)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">B4-1</f>
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">(B2-450)/(B3/SQRT(B4))</f>
         <v>1.260941009468</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">TDIST(ABS(B6),B5,2)</f>
-        <v>0.213300977357428</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="str">
+        <v>0.21330097735743</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Fail to reject H0</v>
       </c>
@@ -2481,88 +2475,95 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="42.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="0" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">AVERAGE('Consumer Transportation Survey'!E8:E22)</f>
         <v>39.3333333333333</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <f aca="false">_xlfn.STDEV.S('Consumer Transportation Survey'!E8:E22)</f>
-        <v>7.55613909978093</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7" t="n">
+        <v>7.55613909978092</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">COUNT('Consumer Transportation Survey'!E8:E22)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">B4-1</f>
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">(B2-35)/(B3/SQRT(B4))</f>
         <v>2.22109831647383</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">TDIST(B6,B5,1)</f>
-        <v>0.0216746597152201</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="str">
+        <v>0.02167465971522</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(B7&lt;B1,"Reject H0", "Fail to reject H0")</f>
         <v>Reject H0</v>
       </c>
@@ -2585,89 +2586,95 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="18.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="20.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="0" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <f aca="false">COUNTIF('Consumer Transportation Survey'!C4:C53, "Yes")</f>
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <f aca="false">B2/50</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <f aca="false">SQRT((0.75*(1-0.75))/B3)</f>
         <v>0.0612372435695795</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">(B4-0.75)/B5</f>
         <v>-0.816496580927727</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <f aca="false">_xlfn.NORM.S.DIST(B6, TRUE())</f>
         <v>0.207108089121262</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="str">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="str">
         <f aca="false">IF(B7&lt;B1, "Reject H0", "Fail to reject H0")</f>
         <v>Fail to reject H0</v>
       </c>
